--- a/files/lci_cw_eol.xlsx
+++ b/files/lci_cw_eol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\05_LCA\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0348AEAA-1A5B-402D-B946-B5C5C62A9B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97410830-1392-4A4A-84C9-FFF1A70D294E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="930" windowWidth="28770" windowHeight="15270" tabRatio="688" firstSheet="25" activeTab="28" xr2:uid="{C53D2317-A0AE-4D89-AE6C-E52C75B15043}"/>
+    <workbookView xWindow="30" yWindow="930" windowWidth="28770" windowHeight="15270" tabRatio="688" activeTab="1" xr2:uid="{C53D2317-A0AE-4D89-AE6C-E52C75B15043}"/>
   </bookViews>
   <sheets>
     <sheet name="Hypothesis" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="310">
   <si>
     <t>skip</t>
   </si>
@@ -935,6 +935,63 @@
   </si>
   <si>
     <t>a476a3cf86b6df19304bec42c90904c7</t>
+  </si>
+  <si>
+    <t>param_g_density</t>
+  </si>
+  <si>
+    <t>ton per cubic meter</t>
+  </si>
+  <si>
+    <t>glass density</t>
+  </si>
+  <si>
+    <t>param_t_lsg</t>
+  </si>
+  <si>
+    <t>millimeter</t>
+  </si>
+  <si>
+    <t>thickness of the laminated safety glass</t>
+  </si>
+  <si>
+    <t>param_t_tsg</t>
+  </si>
+  <si>
+    <t>thickness of the tempered safety glass</t>
+  </si>
+  <si>
+    <t>param_n_pvb</t>
+  </si>
+  <si>
+    <t>number of PVB layers for LSG</t>
+  </si>
+  <si>
+    <t>param_d1</t>
+  </si>
+  <si>
+    <t>kilometer</t>
+  </si>
+  <si>
+    <t>distance btw the IGU processing plant and the construction site</t>
+  </si>
+  <si>
+    <t>param_t_g_ext</t>
+  </si>
+  <si>
+    <t>thickness of the exterior glass sheet</t>
+  </si>
+  <si>
+    <t>param_t_g_mid_tg</t>
+  </si>
+  <si>
+    <t>thickness of the intermediate glass sheet for triple glazing</t>
+  </si>
+  <si>
+    <t>param_t_g_uncoated_int</t>
+  </si>
+  <si>
+    <t>thickness of the interior glass sheet for igu w/o lsg</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1170,6 +1227,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6252,10 +6312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C8692C-E0F3-49D7-94C6-AE0594B1B749}">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6270,7 +6330,7 @@
     <col min="15" max="15" width="55.5703125" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -6281,7 +6341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>32</v>
       </c>
@@ -6293,7 +6353,7 @@
       </c>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -6302,7 +6362,7 @@
       </c>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -6314,13 +6374,13 @@
       </c>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>87</v>
       </c>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>50</v>
       </c>
@@ -6337,17 +6397,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>90</v>
       </c>
       <c r="C8" s="30"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>50</v>
       </c>
@@ -6370,747 +6430,912 @@
       <c r="K9" s="29"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="37">
+        <v>10</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="37">
+        <v>10</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="37">
+        <v>2</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" s="37">
+        <v>125</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="37">
+        <v>8</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="N15" s="32"/>
+      <c r="O15"/>
+      <c r="T15" s="32"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" s="37">
+        <v>6</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="N16" s="32"/>
+      <c r="O16"/>
+      <c r="T16" s="32"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="37">
+        <v>8</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="N17" s="32"/>
+      <c r="O17"/>
+      <c r="T17" s="32"/>
+    </row>
+    <row r="18" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>116</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C18" s="43">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D18" t="s">
         <v>112</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="19" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C19" s="12">
         <f>1115/1000000*Hypothesis!D37*1.1</f>
         <v>3.3115500000000009</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="20" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C20" s="12">
         <f>150/1000*0.6</f>
         <v>0.09</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="21" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C21" s="11">
         <f>100/1000000*Hypothesis!D38</f>
         <v>0.15</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E21" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="22" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C22" s="12">
         <f>365/1000000*Hypothesis!D36</f>
         <v>0.54749999999999999</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E22" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>117</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C23">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D23" t="s">
         <v>113</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E23" t="s">
         <v>109</v>
       </c>
-      <c r="O15"/>
-    </row>
-    <row r="16" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C24" s="12">
         <f>1170/1000000*Hypothesis!D37*1.1</f>
         <v>3.4749000000000008</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="25" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C25" s="12">
         <f>150/1000*0.6</f>
         <v>0.09</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E25" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="26" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C26" s="11">
         <f>100/1000000*Hypothesis!D38</f>
         <v>0.15</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="27" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C27" s="12">
         <f>450/1000000*Hypothesis!D36</f>
         <v>0.67499999999999993</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E27" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>118</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="C20">
+      <c r="C28">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D28" t="s">
         <v>114</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E28" t="s">
         <v>110</v>
       </c>
-      <c r="O20"/>
-    </row>
-    <row r="21" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>177</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C29" s="12">
         <f>1275/1000000*Hypothesis!D37*1.1</f>
         <v>3.7867500000000005</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="30" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C30" s="12">
         <f>520/1000000*Hypothesis!D36</f>
         <v>0.77999999999999992</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E30" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>119</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="C23">
+      <c r="C31">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D31" t="s">
         <v>115</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E31" t="s">
         <v>111</v>
       </c>
-      <c r="O23"/>
-    </row>
-    <row r="24" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>178</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C32" s="12">
         <f>4450/1000000*Hypothesis!D37*1.1</f>
         <v>13.216500000000002</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E32" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="33" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C33" s="12">
         <f>1300/1000000*Hypothesis!D36</f>
         <v>1.95</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E33" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>120</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B34" t="s">
         <v>13</v>
       </c>
-      <c r="C26">
+      <c r="C34">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D34" t="s">
         <v>113</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E34" t="s">
         <v>107</v>
       </c>
-      <c r="O26"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>121</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="C27">
+      <c r="C35">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D35" t="s">
         <v>113</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E35" t="s">
         <v>127</v>
       </c>
-      <c r="O27"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>230</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B36" t="s">
         <v>13</v>
       </c>
-      <c r="C28">
+      <c r="C36">
         <v>0.94</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E36" t="s">
         <v>231</v>
       </c>
-      <c r="O28"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>122</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B37" t="s">
         <v>13</v>
       </c>
-      <c r="C29">
+      <c r="C37">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D37" t="s">
         <v>115</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E37" t="s">
         <v>108</v>
       </c>
-      <c r="O29"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>182</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B38" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="44">
-        <f>C11+C16</f>
+      <c r="C38" s="44">
+        <f>C19+C24</f>
         <v>6.7864500000000021</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E38" t="s">
         <v>128</v>
       </c>
-      <c r="O30"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="O38"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>126</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B39" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="21">
-        <f>C14+C19</f>
+      <c r="C39" s="21">
+        <f>C22+C27</f>
         <v>1.2224999999999999</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E39" t="s">
         <v>129</v>
       </c>
-      <c r="O31"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="O39"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>166</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B40" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C40" s="37">
         <v>130</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E40" t="s">
         <v>93</v>
       </c>
-      <c r="O32"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="O40"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>130</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B41" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C41" s="37">
         <v>50</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E41" t="s">
         <v>143</v>
       </c>
-      <c r="O33"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C34" s="38"/>
-      <c r="O34"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O35"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="O41"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="38"/>
+      <c r="O42"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O43"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B44" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>40</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B46" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B47" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
-      <c r="B40">
+      <c r="B48">
         <v>-1</v>
       </c>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>10</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B50" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+    <row r="52" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+    <row r="53" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B53" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D53" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E53" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F53" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G53" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="H53" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I45" s="17" t="s">
+      <c r="I53" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J45" s="17" t="s">
+      <c r="J53" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K45" s="17" t="s">
+      <c r="K53" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="L45" s="17" t="s">
+      <c r="L53" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="M45" s="17" t="s">
+      <c r="M53" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="N45" s="17" t="s">
+      <c r="N53" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="O45" s="17" t="s">
+      <c r="O53" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="P45" s="18" t="s">
+      <c r="P53" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+    <row r="54" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B54" s="27">
         <v>-1</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C54" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20" t="s">
+      <c r="D54" s="20"/>
+      <c r="E54" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="F46" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" s="20" t="s">
+      <c r="F54" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H46" s="20" t="s">
+      <c r="H54" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I46" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="J46" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="K46" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="L46" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="M46" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="N46" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="O46" s="20" t="s">
+      <c r="I54" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K54" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L54" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="M54" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="N54" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="O54" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="P46" s="26"/>
-    </row>
-    <row r="47" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
+      <c r="P54" s="26"/>
+    </row>
+    <row r="55" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="40">
+      <c r="B55" s="40">
         <v>0</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C55" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D55" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E55" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="31" t="s">
+      <c r="F55" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H55" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I47" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="J47" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="K47" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="L47" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="M47" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="N47" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="O47" s="31" t="s">
+      <c r="I55" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J55" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K55" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L55" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="M55" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="N55" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="O55" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="P47" s="33"/>
-    </row>
-    <row r="48" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="P55" s="33"/>
+    </row>
+    <row r="56" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B48" s="34">
+      <c r="B56" s="34">
         <v>-1</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C56" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31" t="s">
+      <c r="D56" s="31"/>
+      <c r="E56" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="F48" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" s="31" t="s">
+      <c r="F56" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H48" s="31" t="s">
+      <c r="H56" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I48" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="J48" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="K48" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="L48" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="M48" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="N48" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="O48" s="31" t="s">
+      <c r="I56" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J56" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K56" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L56" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="M56" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="N56" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="O56" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="P48" s="33"/>
-    </row>
-    <row r="49" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="33"/>
-    </row>
-    <row r="50" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="33"/>
-    </row>
-    <row r="51" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="33"/>
-    </row>
-    <row r="52" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="33"/>
-    </row>
-    <row r="53" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="33"/>
+      <c r="P56" s="33"/>
+    </row>
+    <row r="57" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="33"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="33"/>
+    </row>
+    <row r="58" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="33"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="33"/>
+    </row>
+    <row r="59" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="33"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="33"/>
+    </row>
+    <row r="60" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="33"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="33"/>
+    </row>
+    <row r="61" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10726,7 +10951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8C0F57-159A-4649-B677-0DFBC4D1668B}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
